--- a/AS1.xlsx
+++ b/AS1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MartinMizgalski\Documents\GitHub\NAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC77EBBB-C134-4190-93BA-89A02C0C020D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61278689-74D9-49EB-ABE2-8356ED035C3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fidelix" sheetId="1" r:id="rId1"/>
@@ -60,8 +60,35 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={99DDA8D6-1B32-4679-8E3A-A05D6DC02594}</author>
+    <author>tc={A27BB58C-A41C-4D91-A783-3F647B00F5B3}</author>
+  </authors>
+  <commentList>
+    <comment ref="B45" authorId="0" shapeId="0" xr:uid="{99DDA8D6-1B32-4679-8E3A-A05D6DC02594}">
+      <text>
+        <t>[Trådad kommentar]
+I din version av Excel kan du läsa den här trådade kommentaren, men eventuella ändringar i den tas bort om filen öppnas i en senare version av Excel. Läs mer: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
+    Verkningsgradslarm</t>
+      </text>
+    </comment>
+    <comment ref="B72" authorId="1" shapeId="0" xr:uid="{A27BB58C-A41C-4D91-A783-3F647B00F5B3}">
+      <text>
+        <t>[Trådad kommentar]
+I din version av Excel kan du läsa den här trådade kommentaren, men eventuella ändringar i den tas bort om filen öppnas i en senare version av Excel. Läs mer: https://go.microsoft.com/fwlink/?linkid=870924
+Kommentar:
+    Verkningsgradslarm</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="592">
   <si>
     <t>Bet</t>
   </si>
@@ -1783,13 +1810,67 @@
   </si>
   <si>
     <t>Version</t>
+  </si>
+  <si>
+    <t>M,B</t>
+  </si>
+  <si>
+    <t>M,L,I</t>
+  </si>
+  <si>
+    <t>M,B,L,L,I</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M=Materiallista</t>
+  </si>
+  <si>
+    <t>B=Beställningslista</t>
+  </si>
+  <si>
+    <t>L=Larmpunkt, om två, två larm</t>
+  </si>
+  <si>
+    <t>I=Inställningsväre, BV, Regleravviklse</t>
+  </si>
+  <si>
+    <t>M,B,L,I</t>
+  </si>
+  <si>
+    <t>M,B,L,L,I,I</t>
+  </si>
+  <si>
+    <t>M,L</t>
+  </si>
+  <si>
+    <t>M,B,L</t>
+  </si>
+  <si>
+    <t>M,B,</t>
+  </si>
+  <si>
+    <t>M,L,I,I</t>
+  </si>
+  <si>
+    <t>M,B,L,L,L,I,I</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>M,B,L,L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1940,6 +2021,11 @@
       <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2322,7 +2408,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2573,6 +2659,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2948,6 +3035,17 @@
   <threadedComment ref="G6" dT="2019-01-08T06:57:09.61" personId="{EA21C8F4-51EF-4DB0-870C-37EEFE820A03}" id="{BC06B5BF-D279-4B01-A602-94E0D5CEDAD0}">
     <text>I ordning utan mellanrum, t.ex.
 Summalarm,Driftorder,Styrsignal</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B45" dT="2019-02-07T15:13:17.33" personId="{EA21C8F4-51EF-4DB0-870C-37EEFE820A03}" id="{99DDA8D6-1B32-4679-8E3A-A05D6DC02594}">
+    <text>Verkningsgradslarm</text>
+  </threadedComment>
+  <threadedComment ref="B72" dT="2019-02-07T15:13:30.77" personId="{EA21C8F4-51EF-4DB0-870C-37EEFE820A03}" id="{A27BB58C-A41C-4D91-A783-3F647B00F5B3}">
+    <text>Verkningsgradslarm</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -5166,7 +5264,7 @@
   </sheetPr>
   <dimension ref="A1:Q175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -8864,7 +8962,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{895743A8-9280-4DD8-9A97-9D141BC903C6}">
           <x14:formula1>
-            <xm:f>SKYLTUTFÖRANDE!$D$43:$D$54</xm:f>
+            <xm:f>SKYLTUTFÖRANDE!$E$43:$E$54</xm:f>
           </x14:formula1>
           <xm:sqref>C5</xm:sqref>
         </x14:dataValidation>
@@ -11035,19 +11133,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="140" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -11076,19 +11174,19 @@
     </row>
     <row r="10" spans="1:11" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" s="115" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="141" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
     </row>
     <row r="12" spans="1:11" s="115" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:11" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11158,18 +11256,18 @@
       <c r="K17" s="7"/>
     </row>
     <row r="19" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
@@ -11179,18 +11277,18 @@
     <row r="22" spans="1:19" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:19" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="144" t="s">
         <v>284</v>
       </c>
-      <c r="C23" s="144" t="s">
+      <c r="C23" s="145" t="s">
         <v>285</v>
       </c>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
       <c r="J23" s="30" t="s">
         <v>286</v>
       </c>
@@ -11218,26 +11316,26 @@
     </row>
     <row r="24" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="145" t="s">
+      <c r="B24" s="138"/>
+      <c r="C24" s="146" t="s">
         <v>294</v>
       </c>
-      <c r="D24" s="136" t="s">
+      <c r="D24" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="E24" s="136" t="s">
+      <c r="E24" s="137" t="s">
         <v>296</v>
       </c>
-      <c r="F24" s="136" t="s">
+      <c r="F24" s="137" t="s">
         <v>297</v>
       </c>
-      <c r="G24" s="136" t="s">
+      <c r="G24" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="H24" s="136" t="s">
+      <c r="H24" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="138" t="s">
+      <c r="I24" s="139" t="s">
         <v>299</v>
       </c>
       <c r="J24" s="32">
@@ -11257,14 +11355,14 @@
     </row>
     <row r="25" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
       <c r="J25" s="37" t="s">
         <v>300</v>
       </c>
@@ -13687,512 +13785,642 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Blad6"/>
-  <dimension ref="A2:G86"/>
+  <dimension ref="A2:H86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D56" sqref="D44:D56"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" style="114" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="114" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" style="114" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="114" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="114" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="114" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="136" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="114" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="114" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="114" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>418</v>
       </c>
       <c r="C4" t="s">
         <v>419</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>420</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>421</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>423</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>424</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>427</v>
       </c>
       <c r="C8" t="s">
         <v>428</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>420</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>429</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>423</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>319</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>426</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>430</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>431</v>
       </c>
       <c r="C12" t="s">
         <v>432</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>420</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>433</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>423</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>435</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>437</v>
       </c>
       <c r="C16" t="s">
         <v>438</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>420</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>439</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>441</v>
       </c>
       <c r="C20" t="s">
         <v>442</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>420</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>443</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>423</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>444</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>426</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>445</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>446</v>
       </c>
       <c r="C24" t="s">
         <v>447</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>420</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>433</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>451</v>
       </c>
       <c r="C28" t="s">
         <v>428</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>420</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>452</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>453</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>454</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="114" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="114" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="114" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="114" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>458</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="12"/>
+      <c r="E42" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="116" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" s="116" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="136"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>481</v>
       </c>
+      <c r="B44" s="114" t="s">
+        <v>574</v>
+      </c>
       <c r="C44" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>463</v>
       </c>
+      <c r="B45" s="114" t="s">
+        <v>591</v>
+      </c>
       <c r="C45" s="12" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="B46" s="114" t="s">
+        <v>575</v>
+      </c>
       <c r="C46" s="12" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>478</v>
       </c>
+      <c r="B47" s="114" t="s">
+        <v>576</v>
+      </c>
       <c r="C47" s="12" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>195</v>
       </c>
+      <c r="B48" s="114" t="s">
+        <v>577</v>
+      </c>
       <c r="C48" s="12" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>477</v>
       </c>
+      <c r="B49" s="114" t="s">
+        <v>578</v>
+      </c>
       <c r="C49" s="12" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="12"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>476</v>
       </c>
+      <c r="B50" s="114" t="s">
+        <v>583</v>
+      </c>
       <c r="C50" s="12" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="12"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
         <v>469</v>
       </c>
+      <c r="B51" s="114" t="s">
+        <v>584</v>
+      </c>
       <c r="C51" s="12" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" s="12"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
         <v>471</v>
       </c>
+      <c r="B52" s="114" t="s">
+        <v>584</v>
+      </c>
       <c r="C52" s="12" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" s="12"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
         <v>464</v>
       </c>
+      <c r="B53" s="136" t="s">
+        <v>584</v>
+      </c>
       <c r="C53" s="12" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="12"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
         <v>245</v>
       </c>
+      <c r="B54" s="114" t="s">
+        <v>585</v>
+      </c>
       <c r="C54" s="12" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" s="118" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="12"/>
+    </row>
+    <row r="55" spans="1:4" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
         <v>480</v>
       </c>
+      <c r="B55" s="118" t="s">
+        <v>574</v>
+      </c>
       <c r="C55" s="12" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" s="12"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
         <v>233</v>
       </c>
+      <c r="B56" s="114" t="s">
+        <v>586</v>
+      </c>
       <c r="C56" s="12" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" s="12"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>466</v>
       </c>
+      <c r="B57" s="114" t="s">
+        <v>587</v>
+      </c>
       <c r="C57" s="12" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" s="12"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>220</v>
       </c>
+      <c r="B58" s="114" t="s">
+        <v>585</v>
+      </c>
       <c r="C58" s="12" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
         <v>459</v>
       </c>
+      <c r="B59" s="114" t="s">
+        <v>578</v>
+      </c>
       <c r="C59" s="12" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" s="12"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
         <v>143</v>
       </c>
+      <c r="B60" s="114" t="s">
+        <v>583</v>
+      </c>
       <c r="C60" s="12" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" s="12"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
         <v>465</v>
       </c>
+      <c r="B61" s="114" t="s">
+        <v>584</v>
+      </c>
       <c r="C61" s="12" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" s="12"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="114" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="114" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="114" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="114" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="114" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="114" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="136" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="136" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="114" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="114" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="114" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>156</v>
       </c>
@@ -14237,16 +14465,17 @@
     <sortCondition ref="C44"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7471B902-ADFE-4AB2-9B87-EF2FF0C77A30}">
   <sheetPr codeName="Blad7"/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14534,7 +14763,374 @@
       <c r="L19" s="111"/>
       <c r="M19" s="111"/>
     </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="111"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="111"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="111"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="111"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="111"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="111"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="111"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="111"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="111"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="111"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="111"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="111"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="111"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="111"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="111"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="111"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="111"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="111"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="111"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="111"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="111"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="111"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="111"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="111"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="111"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="111"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="111"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="111"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="111"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="111"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="111"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="111"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="111"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="111"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="111"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="111"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="111"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="111"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="111"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="111"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="111"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="111"/>
+      <c r="D66" s="111"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="111"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="111"/>
+      <c r="D67" s="111"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="111"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="111"/>
+      <c r="D68" s="111"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="111"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="111"/>
+      <c r="B70" s="111"/>
+      <c r="C70" s="111"/>
+      <c r="D70" s="111"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="111"/>
+      <c r="B71" s="111"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="111"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="111"/>
+      <c r="B72" s="111"/>
+      <c r="C72" s="111"/>
+      <c r="D72" s="111"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="111"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="111"/>
+      <c r="D73" s="111"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="111"/>
+      <c r="B74" s="111"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="111"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="111"/>
+      <c r="B75" s="111"/>
+      <c r="C75" s="111"/>
+      <c r="D75" s="111"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="111"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="111"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="111"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="111"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="111"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="111"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="111"/>
+      <c r="B79" s="111"/>
+      <c r="C79" s="111"/>
+      <c r="D79" s="111"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="111"/>
+      <c r="B80" s="111"/>
+      <c r="C80" s="111"/>
+      <c r="D80" s="111"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AS1.xlsx
+++ b/AS1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MartinMizgalski\Documents\GitHub\NAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7AF18C-ECF2-4D6D-8550-3AC05323DB5F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676AF15F-39D6-4E13-B4DE-D48AFCFDA593}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1816,9 +1816,6 @@
     <t>Elbatteri</t>
   </si>
   <si>
-    <t>Bs</t>
-  </si>
-  <si>
     <t>MB</t>
   </si>
   <si>
@@ -1952,6 +1949,9 @@
   </si>
   <si>
     <t>Leveransinst.</t>
+  </si>
+  <si>
+    <t>bsmela</t>
   </si>
 </sst>
 </file>
@@ -5397,7 +5397,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C110" sqref="C110"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5449,7 +5449,7 @@
         <v>87</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>579</v>
+        <v>624</v>
       </c>
       <c r="F2" s="134"/>
       <c r="G2" s="134"/>
@@ -14489,7 +14489,7 @@
         <v>553</v>
       </c>
       <c r="B44" s="134" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>554</v>
@@ -14502,10 +14502,10 @@
         <v>553</v>
       </c>
       <c r="I44" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="J44" t="s">
         <v>594</v>
-      </c>
-      <c r="J44" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -14513,7 +14513,7 @@
         <v>555</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>218</v>
@@ -14524,7 +14524,7 @@
         <v>555</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J45" t="s">
         <v>555</v>
@@ -14535,7 +14535,7 @@
         <v>312</v>
       </c>
       <c r="B46" s="134" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>556</v>
@@ -14546,10 +14546,10 @@
         <v>312</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J46" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -14557,7 +14557,7 @@
         <v>557</v>
       </c>
       <c r="B47" s="134" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>558</v>
@@ -14568,7 +14568,7 @@
         <v>557</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J47" t="s">
         <v>557</v>
@@ -14590,10 +14590,10 @@
         <v>165</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J48" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -14611,10 +14611,10 @@
         <v>209</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J49" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -14622,7 +14622,7 @@
         <v>294</v>
       </c>
       <c r="B50" s="134" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>92</v>
@@ -14632,7 +14632,7 @@
         <v>294</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J50" t="s">
         <v>294</v>
@@ -14643,7 +14643,7 @@
         <v>563</v>
       </c>
       <c r="B51" s="134" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>564</v>
@@ -14653,10 +14653,10 @@
         <v>563</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J51" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -14664,7 +14664,7 @@
         <v>196</v>
       </c>
       <c r="B52" s="134" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>204</v>
@@ -14674,7 +14674,7 @@
         <v>196</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J52" t="s">
         <v>196</v>
@@ -14685,7 +14685,7 @@
         <v>283</v>
       </c>
       <c r="B53" s="134" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>565</v>
@@ -14695,7 +14695,7 @@
         <v>283</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J53" t="s">
         <v>283</v>
@@ -14706,7 +14706,7 @@
         <v>261</v>
       </c>
       <c r="B54" s="134" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>257</v>
@@ -14716,10 +14716,10 @@
         <v>261</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J54" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="116" customFormat="1" x14ac:dyDescent="0.2">
@@ -14727,7 +14727,7 @@
         <v>566</v>
       </c>
       <c r="B55" s="134" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>189</v>
@@ -14737,10 +14737,10 @@
         <v>566</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J55" s="116" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -14748,7 +14748,7 @@
         <v>286</v>
       </c>
       <c r="B56" s="134" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>181</v>
@@ -14758,10 +14758,10 @@
         <v>286</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J56" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -14769,7 +14769,7 @@
         <v>235</v>
       </c>
       <c r="B57" s="134" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>185</v>
@@ -14779,10 +14779,10 @@
         <v>235</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J57" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -14790,7 +14790,7 @@
         <v>267</v>
       </c>
       <c r="B58" s="134" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>567</v>
@@ -14800,7 +14800,7 @@
         <v>267</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J58" t="s">
         <v>267</v>
@@ -14821,7 +14821,7 @@
         <v>107</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J59" t="s">
         <v>107</v>
@@ -14832,7 +14832,7 @@
         <v>180</v>
       </c>
       <c r="B60" s="134" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>313</v>
@@ -14842,7 +14842,7 @@
         <v>180</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J60" t="s">
         <v>180</v>
@@ -14853,7 +14853,7 @@
         <v>569</v>
       </c>
       <c r="B61" s="134" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>336</v>
@@ -14863,10 +14863,10 @@
         <v>569</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J61" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -14874,7 +14874,7 @@
         <v>203</v>
       </c>
       <c r="B62" s="134" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C62" s="134"/>
       <c r="D62" s="134"/>
@@ -14882,7 +14882,7 @@
         <v>203</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J62" t="s">
         <v>203</v>
@@ -14899,10 +14899,10 @@
         <v>135</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -14910,7 +14910,7 @@
         <v>241</v>
       </c>
       <c r="B64" s="134" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C64" s="134"/>
       <c r="D64" s="134"/>
@@ -14918,7 +14918,7 @@
         <v>241</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J64" s="134" t="s">
         <v>241</v>
@@ -14929,13 +14929,13 @@
         <v>290</v>
       </c>
       <c r="B65" s="134" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>290</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J65" s="134" t="s">
         <v>290</v>
@@ -14946,16 +14946,16 @@
         <v>308</v>
       </c>
       <c r="B66" s="134" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>308</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J66" s="134" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -14963,16 +14963,16 @@
         <v>570</v>
       </c>
       <c r="B67" s="134" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>570</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J67" s="134" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -14986,7 +14986,7 @@
         <v>146</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J68" s="134" t="s">
         <v>146</v>
@@ -14997,16 +14997,16 @@
         <v>256</v>
       </c>
       <c r="B69" s="134" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H69" s="11" t="s">
         <v>256</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J69" s="134" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -15014,16 +15014,16 @@
         <v>572</v>
       </c>
       <c r="B70" s="134" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>572</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J70" s="134" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -15031,13 +15031,13 @@
         <v>280</v>
       </c>
       <c r="B71" s="134" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H71" s="11" t="s">
         <v>280</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J71" s="134" t="s">
         <v>280</v>
@@ -15048,16 +15048,16 @@
         <v>288</v>
       </c>
       <c r="B72" s="134" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>288</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J72" s="134" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -15065,13 +15065,13 @@
         <v>299</v>
       </c>
       <c r="B73" s="134" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>299</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J73" s="134" t="s">
         <v>299</v>
@@ -15082,13 +15082,13 @@
         <v>573</v>
       </c>
       <c r="B74" s="137" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>573</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J74" s="134" t="s">
         <v>573</v>
@@ -15099,16 +15099,16 @@
         <v>272</v>
       </c>
       <c r="B75" s="137" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>272</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J75" s="134" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -15116,13 +15116,13 @@
         <v>574</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>574</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J76" s="134" t="s">
         <v>574</v>
@@ -15133,13 +15133,13 @@
         <v>184</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>184</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J77" s="134" t="s">
         <v>184</v>
@@ -15150,16 +15150,16 @@
         <v>575</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H78" s="11" t="s">
         <v>575</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J78" s="134" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -15167,16 +15167,16 @@
         <v>335</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>335</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J79" s="134" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -15184,16 +15184,16 @@
         <v>199</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>199</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J80" s="134" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -15201,16 +15201,16 @@
         <v>576</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>576</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J81" s="134" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -15218,16 +15218,16 @@
         <v>188</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>188</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J82" s="134" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -15235,16 +15235,16 @@
         <v>263</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H83" s="11" t="s">
         <v>263</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J83" s="134" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -15252,16 +15252,16 @@
         <v>577</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H84" s="134" t="s">
         <v>577</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J84" s="134" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -15275,7 +15275,7 @@
         <v>306</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J85" s="134" t="s">
         <v>306</v>
@@ -15286,13 +15286,13 @@
         <v>578</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>578</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J86" s="134" t="s">
         <v>578</v>
@@ -15306,31 +15306,31 @@
         <v>561</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J87" s="134" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N87" s="134"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J88" s="134" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -15351,17 +15351,17 @@
   <sheetPr codeName="Blad7"/>
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="19" style="134" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
     <col min="7" max="10" width="27.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" customWidth="1"/>
     <col min="12" max="14" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15370,16 +15370,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="139" t="s">
+        <v>619</v>
+      </c>
+      <c r="C1" s="139" t="s">
         <v>620</v>
       </c>
-      <c r="C1" s="139" t="s">
+      <c r="D1" s="139" t="s">
         <v>621</v>
       </c>
-      <c r="D1" s="139" t="s">
+      <c r="E1" s="140" t="s">
         <v>622</v>
-      </c>
-      <c r="E1" s="140" t="s">
-        <v>623</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="138" t="s">
@@ -15402,7 +15402,7 @@
         <v>341</v>
       </c>
       <c r="N1" s="140" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">

--- a/AS1.xlsx
+++ b/AS1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MartinMizgalski\Documents\GitHub\NAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676AF15F-39D6-4E13-B4DE-D48AFCFDA593}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EE1B9C-8C33-4A43-8CD2-1103CAAF3724}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fidelix" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="599">
   <si>
     <t>Bet</t>
   </si>
@@ -625,9 +625,6 @@
     <t>Produal</t>
   </si>
   <si>
-    <t>Produal LUX 34</t>
-  </si>
-  <si>
     <t>50-03-01-GT3</t>
   </si>
   <si>
@@ -637,9 +634,6 @@
     <t>Regin</t>
   </si>
   <si>
-    <t>Regin TG-UH/PT1000</t>
-  </si>
-  <si>
     <t>56-03-01-VMM1</t>
   </si>
   <si>
@@ -670,18 +664,12 @@
     <t>Framledningstemperatur</t>
   </si>
   <si>
-    <t>Regin TG-DHW3/PT1000</t>
-  </si>
-  <si>
     <t>56-03-01-SV1</t>
   </si>
   <si>
     <t>Ventilställdon</t>
   </si>
   <si>
-    <t>Regin RVAZ4L1-24A, Adapter OVA-L1</t>
-  </si>
-  <si>
     <t>24V 400N 5,5mm 6VA</t>
   </si>
   <si>
@@ -736,18 +724,12 @@
     <t>Belimo</t>
   </si>
   <si>
-    <t>Belimo R423+LR24A-SR</t>
-  </si>
-  <si>
     <t>24V 0-10V</t>
   </si>
   <si>
     <t>56-03-02-P1</t>
   </si>
   <si>
-    <t xml:space="preserve">Grundfos Magna3 </t>
-  </si>
-  <si>
     <t>230V 1,56A</t>
   </si>
   <si>
@@ -772,9 +754,6 @@
     <t>56-03-03-P1</t>
   </si>
   <si>
-    <t xml:space="preserve">Grundfos/Magna3 </t>
-  </si>
-  <si>
     <t>52-03-01</t>
   </si>
   <si>
@@ -811,9 +790,6 @@
     <t>52-03-01-P4</t>
   </si>
   <si>
-    <t>Grundfos Aphla2</t>
-  </si>
-  <si>
     <t>230V 0,58A</t>
   </si>
   <si>
@@ -835,9 +811,6 @@
     <t>P1</t>
   </si>
   <si>
-    <t>Grundfos Magna3 25-60</t>
-  </si>
-  <si>
     <t>1x230, 0,75A</t>
   </si>
   <si>
@@ -898,24 +871,15 @@
     <t>Uteluftsspjäll</t>
   </si>
   <si>
-    <t>Belimo SF24A</t>
-  </si>
-  <si>
     <t>24V</t>
   </si>
   <si>
     <t>SV1</t>
   </si>
   <si>
-    <t>Belimo R419+LR24A-SR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Förlängd ventilation </t>
   </si>
   <si>
-    <t>Produal LAP5</t>
-  </si>
-  <si>
     <t>GT2</t>
   </si>
   <si>
@@ -1858,84 +1822,6 @@
     <t>MBLLLII</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>Avluftsspjall</t>
-  </si>
-  <si>
-    <t>Brandspjall</t>
-  </si>
-  <si>
-    <t>Elmatare</t>
-  </si>
-  <si>
-    <t>Expansionskarl</t>
-  </si>
-  <si>
-    <t>Flodesgivare</t>
-  </si>
-  <si>
-    <t>Franluftsflakt</t>
-  </si>
-  <si>
-    <t>Franluftsspjall</t>
-  </si>
-  <si>
-    <t>Franluftstemperatur</t>
-  </si>
-  <si>
-    <t>Kallvattenmatare</t>
-  </si>
-  <si>
-    <t>Luftkvalitegivare</t>
-  </si>
-  <si>
-    <t>Rokdetektor</t>
-  </si>
-  <si>
-    <t>Spjallstalldon</t>
-  </si>
-  <si>
-    <t>Tilluftsflakt</t>
-  </si>
-  <si>
-    <t>Tilluftsspjall</t>
-  </si>
-  <si>
-    <t>TilluftstemperaturVVX</t>
-  </si>
-  <si>
-    <t>Flaktvakt</t>
-  </si>
-  <si>
-    <t>Uteluftsspjall</t>
-  </si>
-  <si>
-    <t>Varmvattenmatare</t>
-  </si>
-  <si>
-    <t>VAVspjall</t>
-  </si>
-  <si>
-    <t>Ventilstalldon</t>
-  </si>
-  <si>
-    <t>VVCtemperatur</t>
-  </si>
-  <si>
-    <t>Varmemangdsmatare</t>
-  </si>
-  <si>
-    <t>Varmevaxlare</t>
-  </si>
-  <si>
-    <t>Forlangdventilation</t>
-  </si>
-  <si>
-    <t>Break</t>
-  </si>
-  <si>
     <t>Larmtext</t>
   </si>
   <si>
@@ -1952,6 +1838,42 @@
   </si>
   <si>
     <t>bsmela</t>
+  </si>
+  <si>
+    <t>Fabrikat/Typ</t>
+  </si>
+  <si>
+    <t>LUX 34</t>
+  </si>
+  <si>
+    <t>TG-UH/PT1000</t>
+  </si>
+  <si>
+    <t>RVAZ4L1-24A, Adapter OVA-L1</t>
+  </si>
+  <si>
+    <t>Multical 801</t>
+  </si>
+  <si>
+    <t>R423,LR24A-SR</t>
+  </si>
+  <si>
+    <t>Multical 401</t>
+  </si>
+  <si>
+    <t>Aphla2</t>
+  </si>
+  <si>
+    <t>Magna3 25-60</t>
+  </si>
+  <si>
+    <t>SF24A</t>
+  </si>
+  <si>
+    <t>R419,LR24A-SR</t>
+  </si>
+  <si>
+    <t>LAP5</t>
   </si>
 </sst>
 </file>
@@ -2528,7 +2450,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2789,6 +2711,15 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5393,8 +5324,8 @@
   </sheetPr>
   <dimension ref="A1:Q175"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
@@ -5449,7 +5380,7 @@
         <v>87</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>624</v>
+        <v>586</v>
       </c>
       <c r="F2" s="134"/>
       <c r="G2" s="134"/>
@@ -6716,7 +6647,7 @@
         <v>181</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>182</v>
+        <v>588</v>
       </c>
       <c r="H60" s="118"/>
       <c r="I60" s="83"/>
@@ -6732,16 +6663,16 @@
     </row>
     <row r="61" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="D61" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="E61" s="11" t="s">
-        <v>186</v>
+        <v>589</v>
       </c>
       <c r="H61" s="119"/>
       <c r="I61" s="83"/>
@@ -6757,19 +6688,16 @@
     </row>
     <row r="62" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C62" s="134" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="F62" s="134" t="s">
         <v>189</v>
-      </c>
-      <c r="E62" s="134" t="s">
-        <v>190</v>
-      </c>
-      <c r="F62" s="134" t="s">
-        <v>191</v>
       </c>
       <c r="G62" s="134"/>
       <c r="H62" s="118">
@@ -6808,10 +6736,10 @@
     </row>
     <row r="65" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="87" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="5"/>
       <c r="H65" s="120"/>
@@ -6826,16 +6754,13 @@
     </row>
     <row r="66" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="88" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E66" s="134" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H66" s="119">
         <v>16</v>
@@ -6879,16 +6804,16 @@
     </row>
     <row r="69" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="88" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C69" s="90" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E69" s="90" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F69" s="90"/>
       <c r="G69" s="90"/>
@@ -6906,19 +6831,19 @@
     </row>
     <row r="70" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="88" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C70" s="90" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D70" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E70" s="90" t="s">
-        <v>200</v>
+        <v>590</v>
       </c>
       <c r="F70" s="90" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G70" s="90"/>
       <c r="H70" s="119"/>
@@ -6935,22 +6860,22 @@
     </row>
     <row r="71" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F71" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="G71" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="H71" s="119"/>
       <c r="I71" s="83">
@@ -6968,16 +6893,16 @@
     </row>
     <row r="72" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="88" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H72" s="118"/>
       <c r="I72" s="83">
@@ -7029,10 +6954,10 @@
     </row>
     <row r="76" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="87" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D76" s="5"/>
       <c r="H76" s="118"/>
@@ -7050,13 +6975,16 @@
         <v>139</v>
       </c>
       <c r="B77" s="88" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>591</v>
       </c>
       <c r="H77" s="119">
         <v>17</v>
@@ -7091,16 +7019,16 @@
         <v>139</v>
       </c>
       <c r="B79" s="88" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H79" s="118"/>
       <c r="I79" s="83"/>
@@ -7119,19 +7047,19 @@
         <v>139</v>
       </c>
       <c r="B80" s="88" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E80" s="134" t="s">
-        <v>219</v>
+        <v>592</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H80" s="118"/>
       <c r="I80" s="83"/>
@@ -7150,22 +7078,22 @@
         <v>139</v>
       </c>
       <c r="B81" s="88" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H81" s="118"/>
       <c r="I81" s="83">
@@ -7195,10 +7123,10 @@
     </row>
     <row r="83" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="87" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D83" s="5"/>
       <c r="H83" s="118"/>
@@ -7213,13 +7141,16 @@
     </row>
     <row r="84" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="88" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>593</v>
       </c>
       <c r="H84" s="119">
         <v>18</v>
@@ -7249,16 +7180,16 @@
     </row>
     <row r="86" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="88" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E86" s="134" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="H86" s="118"/>
       <c r="I86" s="83"/>
@@ -7274,19 +7205,19 @@
     </row>
     <row r="87" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="88" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E87" s="134" t="s">
-        <v>219</v>
+        <v>592</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H87" s="118"/>
       <c r="I87" s="83"/>
@@ -7302,22 +7233,22 @@
     </row>
     <row r="88" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="88" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H88" s="118"/>
       <c r="I88" s="83">
@@ -7359,10 +7290,10 @@
     </row>
     <row r="91" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="89" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D91" s="5"/>
       <c r="H91" s="118"/>
@@ -7377,19 +7308,19 @@
     </row>
     <row r="92" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="88" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E92" s="90" t="s">
-        <v>94</v>
+        <v>187</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>591</v>
       </c>
       <c r="F92" s="90" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G92" s="90"/>
       <c r="H92" s="118">
@@ -7408,19 +7339,19 @@
     </row>
     <row r="93" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="88" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E93" s="90" t="s">
-        <v>94</v>
+        <v>187</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>593</v>
       </c>
       <c r="F93" s="90" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G93" s="90"/>
       <c r="H93" s="118">
@@ -7451,16 +7382,16 @@
     </row>
     <row r="95" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="88" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C95" s="90" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D95" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E95" s="90" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F95" s="90"/>
       <c r="G95" s="90"/>
@@ -7478,16 +7409,16 @@
     </row>
     <row r="96" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="88" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C96" s="90" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D96" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E96" s="90" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F96" s="90"/>
       <c r="G96" s="90"/>
@@ -7505,19 +7436,19 @@
     </row>
     <row r="97" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="88" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C97" s="90" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D97" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E97" s="90" t="s">
-        <v>200</v>
+        <v>590</v>
       </c>
       <c r="F97" s="90" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G97" s="90"/>
       <c r="H97" s="119"/>
@@ -7534,25 +7465,25 @@
     </row>
     <row r="98" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="88" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C98" s="90" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D98" s="90" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E98" s="90" t="s">
-        <v>244</v>
+        <v>594</v>
       </c>
       <c r="F98" s="90" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H98" s="119" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="I98" s="83">
         <v>1</v>
@@ -7569,10 +7500,10 @@
     </row>
     <row r="99" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="88" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H99" s="118" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I99" s="83"/>
       <c r="J99" s="12"/>
@@ -7608,10 +7539,10 @@
     </row>
     <row r="102" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="89" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D102" s="5"/>
       <c r="H102" s="120"/>
@@ -7626,22 +7557,22 @@
     </row>
     <row r="103" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="88" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>252</v>
+        <v>595</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H103" s="118" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="I103" s="83">
         <v>1</v>
@@ -7658,22 +7589,22 @@
     </row>
     <row r="104" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="88" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="H104" s="118" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="I104" s="83">
         <v>1</v>
@@ -7692,22 +7623,22 @@
     </row>
     <row r="105" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="88" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="H105" s="118" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="I105" s="83">
         <v>1</v>
@@ -7726,23 +7657,23 @@
     </row>
     <row r="106" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="88" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F106" s="90" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G106" s="90"/>
       <c r="H106" s="118" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="I106" s="83">
         <v>1</v>
@@ -7761,25 +7692,25 @@
     </row>
     <row r="107" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B107" s="88" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="H107" s="50" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="I107" s="134">
         <v>1</v>
@@ -7795,19 +7726,19 @@
     </row>
     <row r="108" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="88" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>273</v>
+        <v>596</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H108" s="119"/>
       <c r="I108" s="85"/>
@@ -7823,19 +7754,19 @@
     </row>
     <row r="109" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="88" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>276</v>
+        <v>597</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H109" s="118"/>
       <c r="I109" s="83"/>
@@ -7854,16 +7785,16 @@
         <v>145</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>181</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>278</v>
+        <v>598</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H110" s="118"/>
       <c r="I110" s="83">
@@ -7882,16 +7813,16 @@
         <v>149</v>
       </c>
       <c r="C111" s="134" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>181</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>278</v>
+        <v>598</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H111" s="118"/>
       <c r="I111" s="83">
@@ -7907,16 +7838,16 @@
     </row>
     <row r="112" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="107" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C112" s="134" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="H112" s="118"/>
       <c r="I112" s="83"/>
@@ -7935,16 +7866,16 @@
         <v>139</v>
       </c>
       <c r="B113" s="107" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C113" s="134" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="H113" s="118"/>
       <c r="I113" s="83"/>
@@ -7960,16 +7891,16 @@
     </row>
     <row r="114" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="107" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C114" s="134" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="H114" s="118"/>
       <c r="I114" s="83"/>
@@ -7988,16 +7919,16 @@
         <v>139</v>
       </c>
       <c r="B115" s="107" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="C115" s="134" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="H115" s="118"/>
       <c r="I115" s="83"/>
@@ -8013,16 +7944,16 @@
     </row>
     <row r="116" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="107" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C116" s="134" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H116" s="118"/>
       <c r="I116" s="83"/>
@@ -8041,16 +7972,16 @@
         <v>139</v>
       </c>
       <c r="B117" s="107" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C117" s="134" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H117" s="118"/>
       <c r="K117" s="12">
@@ -8059,19 +7990,19 @@
     </row>
     <row r="118" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="107" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C118" s="134" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="H118" s="118"/>
       <c r="I118" s="11">
@@ -8081,19 +8012,19 @@
     </row>
     <row r="119" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="107" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C119" s="134" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="H119" s="118"/>
       <c r="I119" s="11">
@@ -8103,22 +8034,22 @@
     </row>
     <row r="120" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="107" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C120" s="134" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H120" s="118" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="I120" s="83"/>
       <c r="J120" s="12"/>
@@ -8133,22 +8064,22 @@
     </row>
     <row r="121" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="107" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C121" s="134" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="H121" s="118" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I121" s="83"/>
       <c r="J121" s="12"/>
@@ -8163,10 +8094,10 @@
     </row>
     <row r="122" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="107" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C122" s="134" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="H122" s="118"/>
       <c r="I122" s="83"/>
@@ -8180,19 +8111,19 @@
     </row>
     <row r="123" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="107" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C123" s="134" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H123" s="118"/>
       <c r="I123" s="83"/>
@@ -8206,19 +8137,19 @@
     </row>
     <row r="124" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="107" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C124" s="134" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H124" s="118">
         <v>8</v>
@@ -8249,19 +8180,19 @@
     </row>
     <row r="126" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="88" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C126" s="134" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H126" s="118">
         <v>17</v>
@@ -8280,19 +8211,19 @@
     </row>
     <row r="127" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="88" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C127" s="134" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H127" s="118"/>
       <c r="I127" s="83"/>
@@ -8306,19 +8237,19 @@
     </row>
     <row r="128" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="88" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C128" s="134" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H128" s="118">
         <v>2</v>
@@ -8337,19 +8268,19 @@
     </row>
     <row r="129" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="88" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C129" s="134" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H129" s="118"/>
       <c r="I129" s="83"/>
@@ -8363,19 +8294,19 @@
     </row>
     <row r="130" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="88" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C130" s="134" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H130" s="118">
         <v>3</v>
@@ -8394,19 +8325,19 @@
     </row>
     <row r="131" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="88" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C131" s="134" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H131" s="118"/>
       <c r="I131" s="83"/>
@@ -8420,19 +8351,19 @@
     </row>
     <row r="132" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="88" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C132" s="134" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H132" s="118">
         <v>4</v>
@@ -8451,19 +8382,19 @@
     </row>
     <row r="133" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="88" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C133" s="134" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H133" s="118"/>
       <c r="I133" s="83"/>
@@ -8477,19 +8408,19 @@
     </row>
     <row r="134" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="88" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C134" s="134" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H134" s="118">
         <v>5</v>
@@ -8508,19 +8439,19 @@
     </row>
     <row r="135" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="88" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C135" s="134" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H135" s="118"/>
       <c r="I135" s="83"/>
@@ -8534,19 +8465,19 @@
     </row>
     <row r="136" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="88" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C136" s="134" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H136" s="118">
         <v>6</v>
@@ -8565,19 +8496,19 @@
     </row>
     <row r="137" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="88" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C137" s="134" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H137" s="118"/>
       <c r="I137" s="83"/>
@@ -8591,19 +8522,19 @@
     </row>
     <row r="138" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="88" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C138" s="134" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H138" s="118">
         <v>2</v>
@@ -8619,19 +8550,19 @@
     </row>
     <row r="139" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="88" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C139" s="134" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H139" s="118"/>
       <c r="I139" s="83"/>
@@ -8645,19 +8576,19 @@
     </row>
     <row r="140" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="88" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C140" s="134" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H140" s="118">
         <v>3</v>
@@ -8673,19 +8604,19 @@
     </row>
     <row r="141" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="88" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C141" s="134" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H141" s="118"/>
       <c r="I141" s="83"/>
@@ -8699,19 +8630,19 @@
     </row>
     <row r="142" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="88" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C142" s="134" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H142" s="118">
         <v>4</v>
@@ -8727,19 +8658,19 @@
     </row>
     <row r="143" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="88" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C143" s="134" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H143" s="118"/>
       <c r="I143" s="83"/>
@@ -8753,19 +8684,19 @@
     </row>
     <row r="144" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="88" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C144" s="134" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E144" s="11" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H144" s="118">
         <v>7</v>
@@ -8784,19 +8715,19 @@
     </row>
     <row r="145" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="88" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C145" s="134" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H145" s="118"/>
       <c r="I145" s="83"/>
@@ -8822,19 +8753,19 @@
     </row>
     <row r="147" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="88" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H147" s="118">
         <v>1</v>
@@ -8852,19 +8783,19 @@
     </row>
     <row r="148" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="88" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H148" s="118">
         <v>2</v>
@@ -9189,7 +9120,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -9215,56 +9146,56 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -9297,7 +9228,7 @@
       <c r="A7" s="110"/>
       <c r="B7" s="110"/>
       <c r="C7" s="19" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -10795,7 +10726,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -10821,34 +10752,34 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10860,7 +10791,7 @@
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="19" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -11325,24 +11256,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="144" t="s">
-        <v>360</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
+      <c r="A2" s="147" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="134"/>
       <c r="B4" s="134" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C4" s="134"/>
       <c r="D4" s="134"/>
@@ -11357,7 +11288,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="134"/>
       <c r="B6" s="134" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C6" s="134"/>
       <c r="D6" s="134"/>
@@ -11371,34 +11302,34 @@
     </row>
     <row r="7" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="134" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="134" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="134" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" s="114" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="145" t="s">
-        <v>366</v>
-      </c>
-      <c r="B11" s="146"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
+      <c r="A11" s="148" t="s">
+        <v>354</v>
+      </c>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="149"/>
     </row>
     <row r="12" spans="1:11" s="114" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="135"/>
@@ -11416,18 +11347,18 @@
     <row r="13" spans="1:11" s="114" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="135"/>
       <c r="B13" s="27" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="24" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="E13" s="24"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="J13" s="135"/>
       <c r="K13" s="24"/>
@@ -11448,22 +11379,22 @@
     <row r="15" spans="1:11" s="114" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="135"/>
       <c r="B15" s="27" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="24" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="24" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="114" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -11482,7 +11413,7 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="134"/>
       <c r="B17" s="134" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C17" s="134"/>
       <c r="D17" s="6"/>
@@ -11504,18 +11435,18 @@
     </row>
     <row r="19" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="134"/>
-      <c r="B19" s="147" t="s">
-        <v>375</v>
-      </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
+      <c r="B19" s="150" t="s">
+        <v>363</v>
+      </c>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145"/>
       <c r="L19" s="134"/>
       <c r="M19" s="134"/>
       <c r="N19" s="134"/>
@@ -11528,7 +11459,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="134"/>
       <c r="B21" s="134" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C21" s="134"/>
       <c r="D21" s="134"/>
@@ -11571,68 +11502,68 @@
     </row>
     <row r="23" spans="1:19" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
-      <c r="B23" s="148" t="s">
-        <v>377</v>
-      </c>
-      <c r="C23" s="149" t="s">
-        <v>378</v>
-      </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
+      <c r="B23" s="151" t="s">
+        <v>365</v>
+      </c>
+      <c r="C23" s="152" t="s">
+        <v>366</v>
+      </c>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
       <c r="J23" s="29" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="M23" s="29" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="N23" s="108" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="O23" s="108" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="P23" s="108" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="Q23" s="109" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="R23" s="134"/>
       <c r="S23" s="134"/>
     </row>
     <row r="24" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="150" t="s">
-        <v>387</v>
-      </c>
-      <c r="D24" s="141" t="s">
-        <v>388</v>
-      </c>
-      <c r="E24" s="141" t="s">
-        <v>389</v>
-      </c>
-      <c r="F24" s="141" t="s">
-        <v>390</v>
-      </c>
-      <c r="G24" s="141" t="s">
-        <v>391</v>
-      </c>
-      <c r="H24" s="141" t="s">
+      <c r="B24" s="145"/>
+      <c r="C24" s="153" t="s">
+        <v>375</v>
+      </c>
+      <c r="D24" s="144" t="s">
+        <v>376</v>
+      </c>
+      <c r="E24" s="144" t="s">
+        <v>377</v>
+      </c>
+      <c r="F24" s="144" t="s">
+        <v>378</v>
+      </c>
+      <c r="G24" s="144" t="s">
+        <v>379</v>
+      </c>
+      <c r="H24" s="144" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="143" t="s">
-        <v>392</v>
+      <c r="I24" s="146" t="s">
+        <v>380</v>
       </c>
       <c r="J24" s="31">
         <v>6</v>
@@ -11653,72 +11584,72 @@
     </row>
     <row r="25" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
       <c r="J25" s="36" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="L25" s="36" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="M25" s="37" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="N25" s="36" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="O25" s="37" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="P25" s="36" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="S25" s="134"/>
     </row>
     <row r="26" spans="1:19" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B26" s="40"/>
       <c r="C26" s="41" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="H26" s="42">
         <v>1</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="43" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="K26" s="44" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="L26" s="45"/>
       <c r="M26" s="44"/>
@@ -11731,7 +11662,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="49" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B27" s="125"/>
       <c r="C27" s="126"/>
@@ -11754,7 +11685,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="49" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B28" s="125"/>
       <c r="C28" s="127"/>
@@ -11777,7 +11708,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="49" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B29" s="125"/>
       <c r="C29" s="127"/>
@@ -11800,7 +11731,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="49" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B30" s="125"/>
       <c r="C30" s="127"/>
@@ -11823,7 +11754,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="49" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B31" s="125"/>
       <c r="C31" s="127"/>
@@ -11846,7 +11777,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="49" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B32" s="125"/>
       <c r="C32" s="127"/>
@@ -11869,7 +11800,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="49" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="B33" s="125"/>
       <c r="C33" s="127"/>
@@ -11892,7 +11823,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="49" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B34" s="125"/>
       <c r="C34" s="127"/>
@@ -11915,7 +11846,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="49" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B35" s="125"/>
       <c r="C35" s="127"/>
@@ -11938,7 +11869,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="49" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B36" s="125"/>
       <c r="C36" s="127"/>
@@ -11961,7 +11892,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="49" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B37" s="125"/>
       <c r="C37" s="127"/>
@@ -11984,7 +11915,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="49" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B38" s="125"/>
       <c r="C38" s="127"/>
@@ -12007,7 +11938,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="49" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="B39" s="125"/>
       <c r="C39" s="127"/>
@@ -12030,7 +11961,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="49" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B40" s="125"/>
       <c r="C40" s="127"/>
@@ -12053,7 +11984,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="49" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B41" s="125"/>
       <c r="C41" s="127"/>
@@ -12076,7 +12007,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="49" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B42" s="125"/>
       <c r="C42" s="127"/>
@@ -12099,7 +12030,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="49" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B43" s="125"/>
       <c r="C43" s="127"/>
@@ -12122,7 +12053,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="49" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B44" s="125"/>
       <c r="C44" s="127"/>
@@ -12145,7 +12076,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B45" s="125"/>
       <c r="C45" s="127"/>
@@ -12168,7 +12099,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="49" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B46" s="125"/>
       <c r="C46" s="127"/>
@@ -12191,7 +12122,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="49" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="B47" s="125"/>
       <c r="C47" s="127"/>
@@ -12214,7 +12145,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="49" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="B48" s="125"/>
       <c r="C48" s="127"/>
@@ -12237,7 +12168,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="49" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B49" s="125"/>
       <c r="C49" s="127"/>
@@ -12260,7 +12191,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="49" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B50" s="125"/>
       <c r="C50" s="127"/>
@@ -12283,7 +12214,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="49" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B51" s="125"/>
       <c r="C51" s="127"/>
@@ -12306,7 +12237,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="49" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="B52" s="125"/>
       <c r="C52" s="127"/>
@@ -12329,7 +12260,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="49" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B53" s="125"/>
       <c r="C53" s="127"/>
@@ -12352,7 +12283,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="49" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B54" s="132"/>
       <c r="C54" s="127"/>
@@ -12375,7 +12306,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="49" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B55" s="132"/>
       <c r="C55" s="127"/>
@@ -12398,7 +12329,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="49" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B56" s="132"/>
       <c r="C56" s="127"/>
@@ -12421,7 +12352,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="49" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="B57" s="132"/>
       <c r="C57" s="127"/>
@@ -12444,7 +12375,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="49" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B58" s="132"/>
       <c r="C58" s="127"/>
@@ -12467,7 +12398,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="49" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B59" s="132"/>
       <c r="C59" s="127"/>
@@ -12490,7 +12421,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="49" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B60" s="132"/>
       <c r="C60" s="127"/>
@@ -12513,7 +12444,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="49" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B61" s="132"/>
       <c r="C61" s="127"/>
@@ -12536,7 +12467,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="49" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B62" s="132"/>
       <c r="C62" s="127"/>
@@ -12559,7 +12490,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="49" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B63" s="132"/>
       <c r="C63" s="127"/>
@@ -12582,7 +12513,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="49" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B64" s="132"/>
       <c r="C64" s="127"/>
@@ -12605,7 +12536,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="49" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B65" s="132"/>
       <c r="C65" s="127"/>
@@ -12628,7 +12559,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="49" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B66" s="132"/>
       <c r="C66" s="127"/>
@@ -12651,7 +12582,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="49" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B67" s="132"/>
       <c r="C67" s="127"/>
@@ -12674,7 +12605,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="49" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B68" s="132"/>
       <c r="C68" s="127"/>
@@ -12697,7 +12628,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="49" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B69" s="132"/>
       <c r="C69" s="127"/>
@@ -12720,7 +12651,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="49" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B70" s="132"/>
       <c r="C70" s="127"/>
@@ -12743,7 +12674,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="49" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B71" s="132"/>
       <c r="C71" s="127"/>
@@ -12766,7 +12697,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="49" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B72" s="125"/>
       <c r="C72" s="127"/>
@@ -12789,7 +12720,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="49" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B73" s="125"/>
       <c r="C73" s="127"/>
@@ -12812,7 +12743,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="49" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B74" s="125"/>
       <c r="C74" s="127"/>
@@ -12835,7 +12766,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="49" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="B75" s="125"/>
       <c r="C75" s="127"/>
@@ -12858,7 +12789,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="49" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B76" s="125"/>
       <c r="C76" s="127"/>
@@ -12881,7 +12812,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="49" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B77" s="125"/>
       <c r="C77" s="127"/>
@@ -12904,7 +12835,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="49" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B78" s="125"/>
       <c r="C78" s="127"/>
@@ -12927,7 +12858,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="49" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B79" s="125"/>
       <c r="C79" s="127"/>
@@ -12950,7 +12881,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="49" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B80" s="125"/>
       <c r="C80" s="127"/>
@@ -12973,7 +12904,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="49" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B81" s="125"/>
       <c r="C81" s="127"/>
@@ -12996,7 +12927,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="49" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B82" s="125"/>
       <c r="C82" s="127"/>
@@ -13019,7 +12950,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="49" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B83" s="125"/>
       <c r="C83" s="127"/>
@@ -13042,7 +12973,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="49" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B84" s="125"/>
       <c r="C84" s="127"/>
@@ -13065,7 +12996,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="49" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B85" s="125"/>
       <c r="C85" s="127"/>
@@ -13088,7 +13019,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="49" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="B86" s="125"/>
       <c r="C86" s="127"/>
@@ -13111,7 +13042,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="49" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B87" s="125"/>
       <c r="C87" s="127"/>
@@ -13134,7 +13065,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="49" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B88" s="125"/>
       <c r="C88" s="127"/>
@@ -13157,7 +13088,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="49" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="B89" s="125"/>
       <c r="C89" s="127"/>
@@ -13180,7 +13111,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="49" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="B90" s="125"/>
       <c r="C90" s="127"/>
@@ -13203,7 +13134,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="49" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B91" s="125"/>
       <c r="C91" s="127"/>
@@ -13226,7 +13157,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="49" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B92" s="125"/>
       <c r="C92" s="127"/>
@@ -13249,7 +13180,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="49" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="B93" s="125"/>
       <c r="C93" s="127"/>
@@ -13272,7 +13203,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="49" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B94" s="125"/>
       <c r="C94" s="127"/>
@@ -13295,7 +13226,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="49" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="B95" s="125"/>
       <c r="C95" s="127"/>
@@ -13318,7 +13249,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="49" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B96" s="125"/>
       <c r="C96" s="127"/>
@@ -13341,7 +13272,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="49" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B97" s="125"/>
       <c r="C97" s="127"/>
@@ -13364,7 +13295,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="49" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B98" s="125"/>
       <c r="C98" s="127"/>
@@ -13387,7 +13318,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="49" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B99" s="125"/>
       <c r="C99" s="127"/>
@@ -13410,7 +13341,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="49" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="B100" s="125"/>
       <c r="C100" s="127"/>
@@ -13433,7 +13364,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="49" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B101" s="125"/>
       <c r="C101" s="127"/>
@@ -13456,7 +13387,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="49" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="B102" s="125"/>
       <c r="C102" s="127"/>
@@ -13479,7 +13410,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="49" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B103" s="125"/>
       <c r="C103" s="127"/>
@@ -13502,7 +13433,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="49" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B104" s="125"/>
       <c r="C104" s="127"/>
@@ -13525,7 +13456,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="49" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="B105" s="125"/>
       <c r="C105" s="127"/>
@@ -13548,7 +13479,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="49" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B106" s="125"/>
       <c r="C106" s="127"/>
@@ -13571,7 +13502,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="49" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="B107" s="125"/>
       <c r="C107" s="127"/>
@@ -13594,7 +13525,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="49" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B108" s="125"/>
       <c r="C108" s="127"/>
@@ -13617,7 +13548,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="49" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B109" s="125"/>
       <c r="C109" s="127"/>
@@ -13640,7 +13571,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="49" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B110" s="125"/>
       <c r="C110" s="127"/>
@@ -13663,7 +13594,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="49" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B111" s="125"/>
       <c r="C111" s="127"/>
@@ -13686,7 +13617,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="49" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B112" s="125"/>
       <c r="C112" s="127"/>
@@ -13709,7 +13640,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="49" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="B113" s="125"/>
       <c r="C113" s="127"/>
@@ -13732,7 +13663,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="49" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B114" s="125"/>
       <c r="C114" s="127"/>
@@ -13755,7 +13686,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="49" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B115" s="125"/>
       <c r="C115" s="127"/>
@@ -13778,7 +13709,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="49" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B116" s="125"/>
       <c r="C116" s="127"/>
@@ -13801,7 +13732,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="49" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="B117" s="125"/>
       <c r="C117" s="127"/>
@@ -13824,7 +13755,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="49" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="B118" s="125"/>
       <c r="C118" s="127"/>
@@ -13847,7 +13778,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="49" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B119" s="125"/>
       <c r="C119" s="127"/>
@@ -13870,7 +13801,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="49" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="B120" s="125"/>
       <c r="C120" s="127"/>
@@ -13893,7 +13824,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="49" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="B121" s="125"/>
       <c r="C121" s="127"/>
@@ -13916,7 +13847,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="49" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="B122" s="125"/>
       <c r="C122" s="127"/>
@@ -13939,7 +13870,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="49" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="B123" s="125"/>
       <c r="C123" s="127"/>
@@ -13962,7 +13893,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="49" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="B124" s="125"/>
       <c r="C124" s="127"/>
@@ -13985,7 +13916,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="49" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="B125" s="125"/>
       <c r="C125" s="127"/>
@@ -14008,7 +13939,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="49" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="B126" s="125"/>
       <c r="C126" s="127"/>
@@ -14031,7 +13962,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="49" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="B127" s="125"/>
       <c r="C127" s="127"/>
@@ -14089,8 +14020,8 @@
   <sheetPr codeName="Blad6"/>
   <dimension ref="A2:N88"/>
   <sheetViews>
-    <sheetView topLeftCell="E43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J87" sqref="H44:J87"/>
+    <sheetView topLeftCell="A38" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14106,7 +14037,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C2" s="134"/>
       <c r="D2" s="134"/>
@@ -14126,42 +14057,42 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="134" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D4" s="134"/>
       <c r="E4" s="134" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F4" s="134" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G4" s="134" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="H4" s="134"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="134"/>
       <c r="C5" s="134" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D5" s="134"/>
       <c r="E5" s="134"/>
       <c r="F5" s="134" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="G5" s="134" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="H5" s="134"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="134"/>
       <c r="C6" s="134" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D6" s="134"/>
       <c r="E6" s="134"/>
@@ -14171,91 +14102,91 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D8" s="134"/>
       <c r="E8" s="134" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G8" s="134"/>
       <c r="H8" s="134" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="134"/>
       <c r="C9" s="134" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D9" s="134"/>
       <c r="E9" s="134"/>
       <c r="F9" s="134" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="G9" s="134"/>
       <c r="H9" s="134" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="134"/>
       <c r="C10" s="134" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D10" s="134"/>
       <c r="E10" s="134"/>
       <c r="F10" s="134" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="G10" s="134" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="H10" s="134"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="134" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="D12" s="134"/>
       <c r="E12" s="134" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="G12" s="134" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="H12" s="134"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="134"/>
       <c r="C13" s="134" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D13" s="134"/>
       <c r="E13" s="134"/>
       <c r="F13" s="134" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="G13" s="134" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="H13" s="134"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="134"/>
       <c r="C14" s="134" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D14" s="134"/>
       <c r="E14" s="134"/>
@@ -14265,27 +14196,27 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="134" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C16" s="134" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D16" s="134"/>
       <c r="E16" s="134" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F16" s="134" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="G16" s="134"/>
       <c r="H16" s="134" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="134"/>
       <c r="C17" s="134" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D17" s="134"/>
       <c r="E17" s="134"/>
@@ -14295,7 +14226,7 @@
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="134"/>
       <c r="C18" s="134" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D18" s="134"/>
       <c r="E18" s="134"/>
@@ -14304,72 +14235,72 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="134" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C20" s="134" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="D20" s="134"/>
       <c r="E20" s="134" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F20" s="134" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="G20" s="134" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="134"/>
       <c r="C21" s="134" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D21" s="134"/>
       <c r="E21" s="134"/>
       <c r="F21" s="134" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="G21" s="134" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="134"/>
       <c r="C22" s="134" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D22" s="134"/>
       <c r="E22" s="134"/>
       <c r="F22" s="134" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="G22" s="134" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="134" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C24" s="134" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="D24" s="134"/>
       <c r="E24" s="134" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F24" s="134" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="G24" s="134" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="134"/>
       <c r="C25" s="134" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="D25" s="134"/>
       <c r="E25" s="134"/>
@@ -14379,7 +14310,7 @@
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="134"/>
       <c r="C26" s="134" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D26" s="134"/>
       <c r="E26" s="134"/>
@@ -14388,85 +14319,85 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="134" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="C28" s="134" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D28" s="134"/>
       <c r="E28" s="134" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="F28" s="134" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G28" s="134" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="134"/>
       <c r="C29" s="134" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="D29" s="134"/>
       <c r="E29" s="134"/>
       <c r="F29" s="134" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G29" s="134" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="134"/>
       <c r="C30" s="134" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D30" s="134"/>
       <c r="E30" s="134"/>
       <c r="F30" s="134"/>
       <c r="G30" s="134"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="134"/>
       <c r="B35" s="134" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C35" s="134"/>
       <c r="D35" s="134"/>
       <c r="E35" s="134"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="134"/>
       <c r="B36" s="134" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C36" s="134"/>
       <c r="D36" s="134"/>
       <c r="E36" s="134"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="134"/>
       <c r="B37" s="134" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C37" s="134"/>
       <c r="D37" s="134"/>
       <c r="E37" s="134"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="134"/>
       <c r="B38" s="134" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C38" s="134"/>
       <c r="D38" s="134"/>
       <c r="E38" s="134"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="B42" s="134"/>
       <c r="C42" s="11" t="s">
@@ -14474,419 +14405,286 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="134" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="134"/>
       <c r="B43" s="134"/>
       <c r="C43" s="134"/>
       <c r="D43" s="134"/>
       <c r="E43" s="134"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B44" s="134" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="H44" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J44" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="134"/>
-      <c r="H45" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J45" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B46" s="134" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="134"/>
-      <c r="H46" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J46" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B47" s="134" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="134"/>
-      <c r="H47" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J47" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>165</v>
       </c>
       <c r="B48" s="134" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="134"/>
-      <c r="H48" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J48" t="s">
-        <v>596</v>
-      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B49" s="134" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="H49" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J49" t="s">
-        <v>597</v>
-      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B50" s="134" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="H50" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J50" t="s">
-        <v>294</v>
-      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="B51" s="134" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="H51" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J51" t="s">
-        <v>598</v>
-      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B52" s="134" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="H52" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J52" t="s">
-        <v>196</v>
-      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B53" s="134" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="H53" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J53" t="s">
-        <v>283</v>
-      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B54" s="134" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="H54" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J54" t="s">
-        <v>599</v>
-      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:10" s="116" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B55" s="134" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="H55" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J55" s="116" t="s">
-        <v>600</v>
-      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B56" s="134" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>181</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="H56" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J56" t="s">
-        <v>601</v>
-      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B57" s="134" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="H57" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J57" t="s">
-        <v>602</v>
-      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B58" s="134" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="H58" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J58" t="s">
-        <v>267</v>
-      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B59" s="134" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="H59" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J59" t="s">
-        <v>107</v>
-      </c>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>180</v>
       </c>
       <c r="B60" s="134" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="H60" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J60" t="s">
-        <v>180</v>
-      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="B61" s="134" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="H61" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J61" t="s">
-        <v>603</v>
-      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B62" s="134" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="C62" s="134"/>
       <c r="D62" s="134"/>
-      <c r="H62" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J62" t="s">
-        <v>203</v>
-      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
@@ -14895,443 +14693,287 @@
       <c r="B63" s="134"/>
       <c r="C63" s="134"/>
       <c r="D63" s="134"/>
-      <c r="H63" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J63" s="11" t="s">
-        <v>618</v>
-      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B64" s="134" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="C64" s="134"/>
       <c r="D64" s="134"/>
-      <c r="H64" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J64" s="134" t="s">
-        <v>241</v>
-      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="134"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B65" s="134" t="s">
-        <v>592</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J65" s="134" t="s">
-        <v>290</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="134"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B66" s="134" t="s">
-        <v>580</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J66" s="134" t="s">
-        <v>604</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="134"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B67" s="134" t="s">
-        <v>579</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J67" s="134" t="s">
-        <v>605</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="134"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>146</v>
       </c>
       <c r="B68" s="134" t="s">
-        <v>571</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J68" s="134" t="s">
-        <v>146</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="134"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B69" s="134" t="s">
-        <v>585</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J69" s="134" t="s">
-        <v>606</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="134"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B70" s="134" t="s">
-        <v>579</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J70" s="134" t="s">
-        <v>607</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="134"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B71" s="134" t="s">
-        <v>590</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J71" s="134" t="s">
-        <v>280</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="134"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B72" s="134" t="s">
-        <v>582</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J72" s="134" t="s">
-        <v>608</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="134"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B73" s="134" t="s">
-        <v>590</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J73" s="134" t="s">
-        <v>299</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="134"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B74" s="137" t="s">
-        <v>580</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J74" s="134" t="s">
-        <v>573</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="134"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B75" s="137" t="s">
-        <v>579</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J75" s="134" t="s">
-        <v>610</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="134"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J76" s="134" t="s">
-        <v>574</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="134"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J77" s="134" t="s">
-        <v>184</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="134"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J78" s="134" t="s">
-        <v>611</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="134"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J79" s="134" t="s">
-        <v>612</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="134"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J80" s="134" t="s">
-        <v>613</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="134"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>582</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J81" s="134" t="s">
-        <v>614</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="134"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J82" s="134" t="s">
-        <v>615</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="134"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J83" s="134" t="s">
-        <v>616</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="134"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="134" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="H84" s="134" t="s">
-        <v>577</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J84" s="134" t="s">
-        <v>617</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="H84" s="134"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="134"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J85" s="134" t="s">
-        <v>306</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="134"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J86" s="134" t="s">
-        <v>578</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="134"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J87" s="134" t="s">
-        <v>609</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="134"/>
       <c r="N87" s="134"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="J88" s="134" t="s">
-        <v>609</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="134"/>
     </row>
   </sheetData>
   <autoFilter ref="A42" xr:uid="{D9AE7D14-C8C2-4ECD-A667-2B540CD80C7C}">
@@ -15351,8 +14993,8 @@
   <sheetPr codeName="Blad7"/>
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15370,16 +15012,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="139" t="s">
-        <v>619</v>
+        <v>581</v>
       </c>
       <c r="C1" s="139" t="s">
-        <v>620</v>
+        <v>582</v>
       </c>
       <c r="D1" s="139" t="s">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="E1" s="140" t="s">
-        <v>622</v>
+        <v>584</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="138" t="s">
@@ -15392,17 +15034,17 @@
         <v>1</v>
       </c>
       <c r="J1" s="140" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="K1" s="134"/>
       <c r="L1" s="138" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="139" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="N1" s="140" t="s">
-        <v>623</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -16581,12 +16223,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F18515-03DF-41DD-9886-C5F9AA8C2FB2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="26.140625" style="143" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="142" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" s="142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="141" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AS1.xlsx
+++ b/AS1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MartinMizgalski\Documents\GitHub\NAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0072036A-CDC7-4E0E-96A2-58C1671F4738}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF5D63B-BDD6-4535-A25C-54079AF598A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1837,9 +1837,6 @@
     <t>Leveransinst.</t>
   </si>
   <si>
-    <t>bsmela</t>
-  </si>
-  <si>
     <t>Fabrikat/Typ</t>
   </si>
   <si>
@@ -1877,6 +1874,9 @@
   </si>
   <si>
     <t>Reacta</t>
+  </si>
+  <si>
+    <t>bemsla</t>
   </si>
 </sst>
 </file>
@@ -5305,10 +5305,10 @@
   <dimension ref="A1:Q857"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C410" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C413" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A433" sqref="A433:XFD857"/>
+      <selection pane="bottomRight" activeCell="F428" sqref="F428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5360,7 +5360,7 @@
         <v>87</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="F2" s="131"/>
       <c r="G2" s="131"/>
@@ -6627,7 +6627,7 @@
         <v>181</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H60" s="115"/>
       <c r="I60" s="81"/>
@@ -6652,7 +6652,7 @@
         <v>184</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H61" s="116"/>
       <c r="I61" s="81"/>
@@ -6820,7 +6820,7 @@
         <v>184</v>
       </c>
       <c r="E70" s="87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F70" s="87" t="s">
         <v>197</v>
@@ -6964,7 +6964,7 @@
         <v>187</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H77" s="116">
         <v>17</v>
@@ -7036,7 +7036,7 @@
         <v>214</v>
       </c>
       <c r="E80" s="131" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>215</v>
@@ -7130,7 +7130,7 @@
         <v>187</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H84" s="116">
         <v>18</v>
@@ -7194,7 +7194,7 @@
         <v>214</v>
       </c>
       <c r="E87" s="131" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>215</v>
@@ -7297,7 +7297,7 @@
         <v>187</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F92" s="87" t="s">
         <v>229</v>
@@ -7328,7 +7328,7 @@
         <v>187</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F93" s="87" t="s">
         <v>229</v>
@@ -7425,7 +7425,7 @@
         <v>184</v>
       </c>
       <c r="E97" s="87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F97" s="87" t="s">
         <v>197</v>
@@ -7454,7 +7454,7 @@
         <v>200</v>
       </c>
       <c r="E98" s="87" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F98" s="87" t="s">
         <v>237</v>
@@ -7546,7 +7546,7 @@
         <v>200</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>244</v>
@@ -7715,7 +7715,7 @@
         <v>214</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>264</v>
@@ -7743,7 +7743,7 @@
         <v>214</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F109" s="9" t="s">
         <v>215</v>
@@ -7771,7 +7771,7 @@
         <v>181</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>264</v>
@@ -7799,7 +7799,7 @@
         <v>181</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>264</v>
@@ -10065,7 +10065,7 @@
         <v>181</v>
       </c>
       <c r="E202" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F202" s="9"/>
       <c r="G202" s="9"/>
@@ -10093,7 +10093,7 @@
         <v>184</v>
       </c>
       <c r="E203" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
@@ -10299,7 +10299,7 @@
         <v>184</v>
       </c>
       <c r="E212" s="87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F212" s="87" t="s">
         <v>197</v>
@@ -10467,7 +10467,7 @@
         <v>187</v>
       </c>
       <c r="E219" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F219" s="9"/>
       <c r="G219" s="9"/>
@@ -10543,7 +10543,7 @@
         <v>214</v>
       </c>
       <c r="E222" s="131" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F222" s="9" t="s">
         <v>215</v>
@@ -10647,7 +10647,7 @@
         <v>187</v>
       </c>
       <c r="E226" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
@@ -10723,7 +10723,7 @@
         <v>214</v>
       </c>
       <c r="E229" s="131" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F229" s="9" t="s">
         <v>215</v>
@@ -10845,7 +10845,7 @@
         <v>187</v>
       </c>
       <c r="E234" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F234" s="87" t="s">
         <v>229</v>
@@ -10877,7 +10877,7 @@
         <v>187</v>
       </c>
       <c r="E235" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F235" s="87" t="s">
         <v>229</v>
@@ -10981,7 +10981,7 @@
         <v>184</v>
       </c>
       <c r="E239" s="87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F239" s="87" t="s">
         <v>197</v>
@@ -11011,7 +11011,7 @@
         <v>200</v>
       </c>
       <c r="E240" s="87" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F240" s="87" t="s">
         <v>237</v>
@@ -11127,7 +11127,7 @@
         <v>200</v>
       </c>
       <c r="E245" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F245" s="9" t="s">
         <v>244</v>
@@ -11305,7 +11305,7 @@
         <v>214</v>
       </c>
       <c r="E250" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F250" s="9" t="s">
         <v>264</v>
@@ -11335,7 +11335,7 @@
         <v>214</v>
       </c>
       <c r="E251" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F251" s="9" t="s">
         <v>215</v>
@@ -11365,7 +11365,7 @@
         <v>181</v>
       </c>
       <c r="E252" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F252" s="9" t="s">
         <v>264</v>
@@ -11395,7 +11395,7 @@
         <v>181</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F253" s="9" t="s">
         <v>264</v>
@@ -13777,7 +13777,7 @@
         <v>181</v>
       </c>
       <c r="E344" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F344" s="9"/>
       <c r="G344" s="9"/>
@@ -13805,7 +13805,7 @@
         <v>184</v>
       </c>
       <c r="E345" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F345" s="9"/>
       <c r="G345" s="9"/>
@@ -14011,7 +14011,7 @@
         <v>184</v>
       </c>
       <c r="E354" s="87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F354" s="87" t="s">
         <v>197</v>
@@ -14179,7 +14179,7 @@
         <v>187</v>
       </c>
       <c r="E361" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F361" s="9"/>
       <c r="G361" s="9"/>
@@ -14255,7 +14255,7 @@
         <v>214</v>
       </c>
       <c r="E364" s="131" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F364" s="9" t="s">
         <v>215</v>
@@ -14359,7 +14359,7 @@
         <v>187</v>
       </c>
       <c r="E368" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F368" s="9"/>
       <c r="G368" s="9"/>
@@ -14435,7 +14435,7 @@
         <v>214</v>
       </c>
       <c r="E371" s="131" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F371" s="9" t="s">
         <v>215</v>
@@ -14557,7 +14557,7 @@
         <v>187</v>
       </c>
       <c r="E376" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F376" s="87" t="s">
         <v>229</v>
@@ -14589,7 +14589,7 @@
         <v>187</v>
       </c>
       <c r="E377" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F377" s="87" t="s">
         <v>229</v>
@@ -14693,7 +14693,7 @@
         <v>184</v>
       </c>
       <c r="E381" s="87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F381" s="87" t="s">
         <v>197</v>
@@ -14723,7 +14723,7 @@
         <v>200</v>
       </c>
       <c r="E382" s="87" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F382" s="87" t="s">
         <v>237</v>
@@ -14839,7 +14839,7 @@
         <v>200</v>
       </c>
       <c r="E387" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F387" s="9" t="s">
         <v>244</v>
@@ -15017,7 +15017,7 @@
         <v>214</v>
       </c>
       <c r="E392" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F392" s="9" t="s">
         <v>264</v>
@@ -15047,7 +15047,7 @@
         <v>214</v>
       </c>
       <c r="E393" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F393" s="9" t="s">
         <v>215</v>
@@ -15077,7 +15077,7 @@
         <v>181</v>
       </c>
       <c r="E394" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F394" s="9" t="s">
         <v>264</v>
@@ -15107,7 +15107,7 @@
         <v>181</v>
       </c>
       <c r="E395" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F395" s="9" t="s">
         <v>264</v>
@@ -16173,7 +16173,7 @@
         <v>324</v>
       </c>
       <c r="E432" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F432" s="9" t="s">
         <v>264</v>
@@ -17328,7 +17328,7 @@
         <v>181</v>
       </c>
       <c r="E485" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H485" s="115"/>
       <c r="I485" s="81"/>
@@ -17353,7 +17353,7 @@
         <v>184</v>
       </c>
       <c r="E486" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H486" s="116"/>
       <c r="I486" s="81"/>
@@ -17521,7 +17521,7 @@
         <v>184</v>
       </c>
       <c r="E495" s="87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F495" s="87" t="s">
         <v>197</v>
@@ -17665,7 +17665,7 @@
         <v>187</v>
       </c>
       <c r="E502" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H502" s="116">
         <v>17</v>
@@ -17737,7 +17737,7 @@
         <v>214</v>
       </c>
       <c r="E505" s="131" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F505" s="9" t="s">
         <v>215</v>
@@ -17831,7 +17831,7 @@
         <v>187</v>
       </c>
       <c r="E509" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H509" s="116">
         <v>18</v>
@@ -17895,7 +17895,7 @@
         <v>214</v>
       </c>
       <c r="E512" s="131" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F512" s="9" t="s">
         <v>215</v>
@@ -17998,7 +17998,7 @@
         <v>187</v>
       </c>
       <c r="E517" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F517" s="87" t="s">
         <v>229</v>
@@ -18029,7 +18029,7 @@
         <v>187</v>
       </c>
       <c r="E518" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F518" s="87" t="s">
         <v>229</v>
@@ -18126,7 +18126,7 @@
         <v>184</v>
       </c>
       <c r="E522" s="87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F522" s="87" t="s">
         <v>197</v>
@@ -18155,7 +18155,7 @@
         <v>200</v>
       </c>
       <c r="E523" s="87" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F523" s="87" t="s">
         <v>237</v>
@@ -18247,7 +18247,7 @@
         <v>200</v>
       </c>
       <c r="E528" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F528" s="9" t="s">
         <v>244</v>
@@ -18416,7 +18416,7 @@
         <v>214</v>
       </c>
       <c r="E533" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F533" s="9" t="s">
         <v>264</v>
@@ -18444,7 +18444,7 @@
         <v>214</v>
       </c>
       <c r="E534" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F534" s="9" t="s">
         <v>215</v>
@@ -18472,7 +18472,7 @@
         <v>181</v>
       </c>
       <c r="E535" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F535" s="9" t="s">
         <v>264</v>
@@ -18500,7 +18500,7 @@
         <v>181</v>
       </c>
       <c r="E536" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F536" s="9" t="s">
         <v>264</v>
@@ -20782,7 +20782,7 @@
         <v>181</v>
       </c>
       <c r="E627" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F627" s="9"/>
       <c r="G627" s="9"/>
@@ -20810,7 +20810,7 @@
         <v>184</v>
       </c>
       <c r="E628" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F628" s="9"/>
       <c r="G628" s="9"/>
@@ -21015,7 +21015,7 @@
         <v>184</v>
       </c>
       <c r="E637" s="87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F637" s="87" t="s">
         <v>197</v>
@@ -21183,7 +21183,7 @@
         <v>187</v>
       </c>
       <c r="E644" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F644" s="9"/>
       <c r="G644" s="9"/>
@@ -21259,7 +21259,7 @@
         <v>214</v>
       </c>
       <c r="E647" s="131" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F647" s="9" t="s">
         <v>215</v>
@@ -21363,7 +21363,7 @@
         <v>187</v>
       </c>
       <c r="E651" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F651" s="9"/>
       <c r="G651" s="9"/>
@@ -21439,7 +21439,7 @@
         <v>214</v>
       </c>
       <c r="E654" s="131" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F654" s="9" t="s">
         <v>215</v>
@@ -21561,7 +21561,7 @@
         <v>187</v>
       </c>
       <c r="E659" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F659" s="87" t="s">
         <v>229</v>
@@ -21593,7 +21593,7 @@
         <v>187</v>
       </c>
       <c r="E660" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F660" s="87" t="s">
         <v>229</v>
@@ -21697,7 +21697,7 @@
         <v>184</v>
       </c>
       <c r="E664" s="87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F664" s="87" t="s">
         <v>197</v>
@@ -21727,7 +21727,7 @@
         <v>200</v>
       </c>
       <c r="E665" s="87" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F665" s="87" t="s">
         <v>237</v>
@@ -21843,7 +21843,7 @@
         <v>200</v>
       </c>
       <c r="E670" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F670" s="9" t="s">
         <v>244</v>
@@ -22021,7 +22021,7 @@
         <v>214</v>
       </c>
       <c r="E675" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F675" s="9" t="s">
         <v>264</v>
@@ -22051,7 +22051,7 @@
         <v>214</v>
       </c>
       <c r="E676" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F676" s="9" t="s">
         <v>215</v>
@@ -22081,7 +22081,7 @@
         <v>181</v>
       </c>
       <c r="E677" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F677" s="9" t="s">
         <v>264</v>
@@ -22111,7 +22111,7 @@
         <v>181</v>
       </c>
       <c r="E678" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F678" s="9" t="s">
         <v>264</v>
@@ -24517,7 +24517,7 @@
         <v>181</v>
       </c>
       <c r="E769" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F769" s="9"/>
       <c r="G769" s="9"/>
@@ -24545,7 +24545,7 @@
         <v>184</v>
       </c>
       <c r="E770" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F770" s="9"/>
       <c r="G770" s="9"/>
@@ -24750,7 +24750,7 @@
         <v>184</v>
       </c>
       <c r="E779" s="87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F779" s="87" t="s">
         <v>197</v>
@@ -24918,7 +24918,7 @@
         <v>187</v>
       </c>
       <c r="E786" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F786" s="9"/>
       <c r="G786" s="9"/>
@@ -24994,7 +24994,7 @@
         <v>214</v>
       </c>
       <c r="E789" s="131" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F789" s="9" t="s">
         <v>215</v>
@@ -25098,7 +25098,7 @@
         <v>187</v>
       </c>
       <c r="E793" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F793" s="9"/>
       <c r="G793" s="9"/>
@@ -25174,7 +25174,7 @@
         <v>214</v>
       </c>
       <c r="E796" s="131" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F796" s="9" t="s">
         <v>215</v>
@@ -25296,7 +25296,7 @@
         <v>187</v>
       </c>
       <c r="E801" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F801" s="87" t="s">
         <v>229</v>
@@ -25328,7 +25328,7 @@
         <v>187</v>
       </c>
       <c r="E802" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F802" s="87" t="s">
         <v>229</v>
@@ -25432,7 +25432,7 @@
         <v>184</v>
       </c>
       <c r="E806" s="87" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F806" s="87" t="s">
         <v>197</v>
@@ -25462,7 +25462,7 @@
         <v>200</v>
       </c>
       <c r="E807" s="87" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F807" s="87" t="s">
         <v>237</v>
@@ -25578,7 +25578,7 @@
         <v>200</v>
       </c>
       <c r="E812" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F812" s="9" t="s">
         <v>244</v>
@@ -25756,7 +25756,7 @@
         <v>214</v>
       </c>
       <c r="E817" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F817" s="9" t="s">
         <v>264</v>
@@ -25786,7 +25786,7 @@
         <v>214</v>
       </c>
       <c r="E818" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F818" s="9" t="s">
         <v>215</v>
@@ -25816,7 +25816,7 @@
         <v>181</v>
       </c>
       <c r="E819" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F819" s="9" t="s">
         <v>264</v>
@@ -25846,7 +25846,7 @@
         <v>181</v>
       </c>
       <c r="E820" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F820" s="9" t="s">
         <v>264</v>
@@ -26912,7 +26912,7 @@
         <v>324</v>
       </c>
       <c r="E857" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F857" s="9" t="s">
         <v>264</v>
@@ -34113,7 +34113,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="139" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B1" s="139" t="s">
         <v>3</v>
